--- a/2023 Report/nonplayoffteams.xlsx
+++ b/2023 Report/nonplayoffteams.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brenton/Documents/Fantasy-Football/2023 Report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6800" yWindow="4460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -85,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +162,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -195,12 +213,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -227,14 +245,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -261,6 +280,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +456,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -486,13 +512,13 @@
         <v>113.287142857143</v>
       </c>
       <c r="G2">
-        <v>173.396666666666</v>
+        <v>173.39666666666599</v>
       </c>
       <c r="H2">
-        <v>12.3854761904762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12.385476190476201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,7 +535,7 @@
         <v>1527.62</v>
       </c>
       <c r="F3">
-        <v>109.115714285714</v>
+        <v>109.11571428571401</v>
       </c>
       <c r="G3">
         <v>158.791666666667</v>
@@ -518,7 +544,7 @@
         <v>11.3422619047619</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -541,10 +567,10 @@
         <v>126.238333333333</v>
       </c>
       <c r="H4">
-        <v>9.01702380952382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>9.0170238095238204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -561,16 +587,16 @@
         <v>1490.32</v>
       </c>
       <c r="F5">
-        <v>106.451428571429</v>
+        <v>106.45142857142901</v>
       </c>
       <c r="G5">
         <v>121.491666666667</v>
       </c>
       <c r="H5">
-        <v>8.67797619047622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>8.6779761904762207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -593,10 +619,10 @@
         <v>119.686666666666</v>
       </c>
       <c r="H6">
-        <v>8.5490476190476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>8.5490476190476006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -616,13 +642,13 @@
         <v>109.804285714286</v>
       </c>
       <c r="G7">
-        <v>119.171666666667</v>
+        <v>119.17166666666699</v>
       </c>
       <c r="H7">
-        <v>8.51226190476193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>8.5122619047619299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -645,10 +671,10 @@
         <v>115.375</v>
       </c>
       <c r="H8">
-        <v>7.69166666666668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>7.6916666666666798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -668,13 +694,13 @@
         <v>118.16</v>
       </c>
       <c r="G9">
-        <v>110.086666666666</v>
+        <v>110.08666666666601</v>
       </c>
       <c r="H9">
         <v>7.33911111111109</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -697,10 +723,10 @@
         <v>106.878333333333</v>
       </c>
       <c r="H10">
-        <v>7.12522222222221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>7.1252222222222104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -720,10 +746,10 @@
         <v>100.297142857143</v>
       </c>
       <c r="G11">
-        <v>96.5783333333334</v>
+        <v>96.578333333333404</v>
       </c>
       <c r="H11">
-        <v>6.89845238095238</v>
+        <v>6.8984523809523797</v>
       </c>
     </row>
   </sheetData>
